--- a/fhir/indisa/StructureDefinition-RegionalLocationIdentifier.xlsx
+++ b/fhir/indisa/StructureDefinition-RegionalLocationIdentifier.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="127">
   <si>
     <t>Path</t>
   </si>
@@ -140,10 +140,10 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Identificador regional</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Regional location identifier</t>
+  </si>
+  <si>
+    <t>Identification of the regional location of residence of the patient.</t>
   </si>
   <si>
     <t>*</t>
@@ -170,7 +170,7 @@
     <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
-    <t>regionalLocationIdentifier</t>
+    <t>RegionalLocationIdentifier</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -186,6 +186,9 @@
 </t>
   </si>
   <si>
+    <t>An Extension</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
@@ -215,7 +218,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>https://digitalware-klinic.github.io/fhir/indisa/StructureDefinition/RegionalLocationIdentifier</t>
+    <t>https://digitalware-klinic.github.io/fhir/indisa/StructureDefinition-RegionalLocationIdentifier</t>
   </si>
   <si>
     <t>N/A</t>
@@ -563,42 +566,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.69921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.19921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="46.0390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.96875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.64453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="44.6953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="17.44140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="99.8515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -942,7 +945,7 @@
         <v>36</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -981,19 +984,19 @@
         <v>37</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>38</v>
@@ -1013,7 +1016,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1036,16 +1039,16 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1053,7 +1056,7 @@
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R5" t="s" s="2">
         <v>37</v>
@@ -1095,7 +1098,7 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>39</v>
@@ -1110,12 +1113,12 @@
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1138,13 +1141,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1195,7 +1198,7 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>38</v>
@@ -1207,15 +1210,15 @@
         <v>37</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1315,11 +1318,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -1341,13 +1344,13 @@
         <v>54</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1385,19 +1388,19 @@
         <v>37</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>38</v>
@@ -1417,7 +1420,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1440,19 +1443,19 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O9" t="s" s="2">
         <v>37</v>
@@ -1477,13 +1480,13 @@
         <v>37</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Z9" t="s" s="2">
         <v>37</v>
@@ -1501,7 +1504,7 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
@@ -1513,15 +1516,15 @@
         <v>37</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1544,19 +1547,19 @@
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>37</v>
@@ -1581,13 +1584,13 @@
         <v>37</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>37</v>
@@ -1605,7 +1608,7 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
@@ -1617,15 +1620,15 @@
         <v>37</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1648,19 +1651,19 @@
         <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>37</v>
@@ -1673,7 +1676,7 @@
         <v>37</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>37</v>
@@ -1709,7 +1712,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1721,15 +1724,15 @@
         <v>37</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1755,13 +1758,13 @@
         <v>47</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -1775,7 +1778,7 @@
         <v>37</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>37</v>
@@ -1811,7 +1814,7 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>38</v>
@@ -1823,15 +1826,15 @@
         <v>37</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1854,13 +1857,13 @@
         <v>40</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1911,7 +1914,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
@@ -1923,15 +1926,15 @@
         <v>37</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1954,16 +1957,16 @@
         <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2013,7 +2016,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
@@ -2025,10 +2028,10 @@
         <v>37</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/indisa/StructureDefinition-RegionalLocationIdentifier.xlsx
+++ b/fhir/indisa/StructureDefinition-RegionalLocationIdentifier.xlsx
@@ -566,42 +566,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="26.578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.19921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="27.69921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.96875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="46.0390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="44.6953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.44140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.64453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="99.8515625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
